--- a/tabellen/concept/5.1/arceringen-concept-5.1.xlsx
+++ b/tabellen/concept/5.1/arceringen-concept-5.1.xlsx
@@ -5,25 +5,38 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB418B82-FB5E-487F-8C1C-27700A035687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D248A2-4C6A-4301-B27B-6A9FCA67B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8E59BC7C-BB46-4FD8-AD83-109946EC0AD5}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{8E59BC7C-BB46-4FD8-AD83-109946EC0AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="arceringen-concept-5.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'arceringen-concept-5.1'!$A$1:$K$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'arceringen-concept-5.1'!$O$1:$O$429</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1162">
   <si>
     <t>arceringURI</t>
   </si>
@@ -3494,6 +3507,21 @@
   </si>
   <si>
     <t>humeus</t>
+  </si>
+  <si>
+    <t>AGW-GRONDSOORTEN_ZAND_DRAINEERZAND-SOD</t>
+  </si>
+  <si>
+    <t>AGW-GRONDSOORTEN_ZAND_ZANDVOORZANDBED-SOD</t>
+  </si>
+  <si>
+    <t>AVH-OPENVERHARDING_BEDRIJFSVLOERPLAAT_BLOK_RAND-SO</t>
+  </si>
+  <si>
+    <t>AVH-OPENVERHARDING_BEDRIJFSVLOERPLAAT_BLOK-SO</t>
+  </si>
+  <si>
+    <t>AVH-OPENVERHARDING_BEDRIJFSVLOERPLAAT_HALFST-SO</t>
   </si>
 </sst>
 </file>
@@ -4354,15 +4382,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53388CEA-7F2C-4318-B462-AEB542FD377E}">
-  <dimension ref="A1:K429"/>
+  <dimension ref="A1:P429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4419,8 +4451,15 @@
       <c r="I2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(F2=O2, "Gelijk", "Niet gelijk")</f>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -4445,8 +4484,15 @@
       <c r="I3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O3" t="s">
+        <v>373</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="0">IF(F3=O3, "Gelijk", "Niet gelijk")</f>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>666</v>
       </c>
@@ -4471,8 +4517,15 @@
       <c r="I4" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>667</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>899</v>
       </c>
@@ -4497,8 +4550,15 @@
       <c r="I5" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
+        <v>900</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1026</v>
       </c>
@@ -4523,8 +4583,15 @@
       <c r="I6" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1047</v>
       </c>
@@ -4549,8 +4616,15 @@
       <c r="I7" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>532</v>
       </c>
@@ -4575,8 +4649,15 @@
       <c r="I8" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O8" t="s">
+        <v>533</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1071</v>
       </c>
@@ -4601,8 +4682,15 @@
       <c r="I9" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1093</v>
       </c>
@@ -4627,8 +4715,15 @@
       <c r="I10" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1125</v>
       </c>
@@ -4653,8 +4748,15 @@
       <c r="I11" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -4679,8 +4781,15 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -4705,8 +4814,15 @@
       <c r="I13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -4731,8 +4847,15 @@
       <c r="I14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4757,8 +4880,15 @@
       <c r="I15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O15" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -4783,8 +4913,15 @@
       <c r="I16" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O16" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -4809,8 +4946,15 @@
       <c r="I17" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -4835,8 +4979,15 @@
       <c r="I18" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O18" t="s">
+        <v>246</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>277</v>
       </c>
@@ -4861,8 +5012,15 @@
       <c r="I19" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O19" t="s">
+        <v>278</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -4887,8 +5045,15 @@
       <c r="I20" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
+        <v>308</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>340</v>
       </c>
@@ -4913,8 +5078,15 @@
       <c r="I21" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O21" t="s">
+        <v>341</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>375</v>
       </c>
@@ -4939,8 +5111,15 @@
       <c r="I22" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
+        <v>376</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -4965,8 +5144,15 @@
       <c r="I23" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
+        <v>402</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>432</v>
       </c>
@@ -4991,8 +5177,15 @@
       <c r="I24" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O24" t="s">
+        <v>433</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>464</v>
       </c>
@@ -5017,8 +5210,15 @@
       <c r="I25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
+        <v>465</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>496</v>
       </c>
@@ -5043,8 +5243,15 @@
       <c r="I26" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
+        <v>497</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>555</v>
       </c>
@@ -5069,8 +5276,15 @@
       <c r="I27" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
+        <v>556</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>526</v>
       </c>
@@ -5095,8 +5309,15 @@
       <c r="I28" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
+        <v>527</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>606</v>
       </c>
@@ -5121,8 +5342,15 @@
       <c r="I29" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
+        <v>607</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>643</v>
       </c>
@@ -5147,8 +5375,15 @@
       <c r="I30" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O30" t="s">
+        <v>644</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>590</v>
       </c>
@@ -5173,8 +5408,15 @@
       <c r="I31" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O31" t="s">
+        <v>591</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>669</v>
       </c>
@@ -5199,8 +5441,15 @@
       <c r="I32" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O32" t="s">
+        <v>670</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>690</v>
       </c>
@@ -5225,8 +5474,15 @@
       <c r="I33" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>691</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>713</v>
       </c>
@@ -5251,8 +5507,15 @@
       <c r="I34" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
+        <v>714</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>736</v>
       </c>
@@ -5277,8 +5540,15 @@
       <c r="I35" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
+        <v>737</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>759</v>
       </c>
@@ -5303,8 +5573,15 @@
       <c r="I36" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
+        <v>760</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>902</v>
       </c>
@@ -5329,8 +5606,15 @@
       <c r="I37" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
+        <v>903</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>927</v>
       </c>
@@ -5355,8 +5639,15 @@
       <c r="I38" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
+        <v>928</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>783</v>
       </c>
@@ -5381,8 +5672,15 @@
       <c r="I39" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O39" t="s">
+        <v>784</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>871</v>
       </c>
@@ -5407,8 +5705,15 @@
       <c r="I40" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O40" t="s">
+        <v>872</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>847</v>
       </c>
@@ -5433,8 +5738,15 @@
       <c r="I41" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O41" t="s">
+        <v>848</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>952</v>
       </c>
@@ -5459,8 +5771,15 @@
       <c r="I42" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O42" t="s">
+        <v>953</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1015</v>
       </c>
@@ -5485,8 +5804,15 @@
       <c r="I43" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O43" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1018</v>
       </c>
@@ -5511,8 +5837,15 @@
       <c r="I44" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1003</v>
       </c>
@@ -5537,8 +5870,15 @@
       <c r="I45" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1020</v>
       </c>
@@ -5563,8 +5903,15 @@
       <c r="I46" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O46" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1023</v>
       </c>
@@ -5589,8 +5936,15 @@
       <c r="I47" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O47" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1029</v>
       </c>
@@ -5615,8 +5969,15 @@
       <c r="I48" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1032</v>
       </c>
@@ -5641,8 +6002,15 @@
       <c r="I49" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O49" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1035</v>
       </c>
@@ -5667,8 +6035,15 @@
       <c r="I50" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O50" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1038</v>
       </c>
@@ -5693,8 +6068,15 @@
       <c r="I51" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O51" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1041</v>
       </c>
@@ -5719,8 +6101,15 @@
       <c r="I52" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O52" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>593</v>
       </c>
@@ -5745,8 +6134,15 @@
       <c r="I53" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O53" t="s">
+        <v>594</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>585</v>
       </c>
@@ -5771,8 +6167,15 @@
       <c r="I54" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O54" t="s">
+        <v>588</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1044</v>
       </c>
@@ -5797,8 +6200,15 @@
       <c r="I55" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O55" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1050</v>
       </c>
@@ -5823,8 +6233,15 @@
       <c r="I56" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1053</v>
       </c>
@@ -5849,8 +6266,15 @@
       <c r="I57" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O57" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>844</v>
       </c>
@@ -5875,8 +6299,15 @@
       <c r="I58" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O58" t="s">
+        <v>845</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1055</v>
       </c>
@@ -5901,8 +6332,15 @@
       <c r="I59" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O59" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1058</v>
       </c>
@@ -5927,8 +6365,15 @@
       <c r="I60" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O60" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>627</v>
       </c>
@@ -5953,8 +6398,15 @@
       <c r="I61" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O61" t="s">
+        <v>628</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1085</v>
       </c>
@@ -5979,8 +6431,15 @@
       <c r="I62" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O62" t="s">
+        <v>1086</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>792</v>
       </c>
@@ -6005,8 +6464,15 @@
       <c r="I63" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O63" t="s">
+        <v>793</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -6025,8 +6491,15 @@
       <c r="H64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O64" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -6045,8 +6518,15 @@
       <c r="H65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O65" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -6065,8 +6545,15 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O66" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -6085,8 +6572,15 @@
       <c r="H67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O67" t="s">
+        <v>19</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P102" si="1">IF(F67=O67, "Gelijk", "Niet gelijk")</f>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1081</v>
       </c>
@@ -6111,8 +6605,15 @@
       <c r="I68" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O68" t="s">
+        <v>1082</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>795</v>
       </c>
@@ -6137,8 +6638,15 @@
       <c r="I69" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O69" t="s">
+        <v>796</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -6157,8 +6665,15 @@
       <c r="H70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -6177,8 +6692,15 @@
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O71" t="s">
+        <v>13</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1087</v>
       </c>
@@ -6203,8 +6725,15 @@
       <c r="I72" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O72" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>798</v>
       </c>
@@ -6229,8 +6758,15 @@
       <c r="I73" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O73" t="s">
+        <v>799</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1074</v>
       </c>
@@ -6255,8 +6791,15 @@
       <c r="I74" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O74" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>801</v>
       </c>
@@ -6281,8 +6824,15 @@
       <c r="I75" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O75" t="s">
+        <v>802</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>535</v>
       </c>
@@ -6307,8 +6857,15 @@
       <c r="I76" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O76" t="s">
+        <v>536</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>803</v>
       </c>
@@ -6333,8 +6890,15 @@
       <c r="I77" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O77" t="s">
+        <v>804</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1069</v>
       </c>
@@ -6359,8 +6923,15 @@
       <c r="I78" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O78" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>805</v>
       </c>
@@ -6385,8 +6956,15 @@
       <c r="I79" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O79" t="s">
+        <v>806</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1089</v>
       </c>
@@ -6411,8 +6989,15 @@
       <c r="I80" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O80" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>808</v>
       </c>
@@ -6437,8 +7022,15 @@
       <c r="I81" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O81" t="s">
+        <v>809</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -6457,8 +7049,15 @@
       <c r="H82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="1"/>
+        <v>Gelijk</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -6477,8 +7076,15 @@
       <c r="H83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -6497,8 +7103,15 @@
       <c r="H84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O84" t="s">
+        <v>1084</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -6517,8 +7130,15 @@
       <c r="H85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O85" t="s">
+        <v>812</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1083</v>
       </c>
@@ -6543,8 +7163,15 @@
       <c r="I86" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O86" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>811</v>
       </c>
@@ -6569,8 +7196,15 @@
       <c r="I87" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O87" t="s">
+        <v>815</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1079</v>
       </c>
@@ -6595,8 +7229,15 @@
       <c r="I88" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O88" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>814</v>
       </c>
@@ -6621,8 +7262,15 @@
       <c r="I89" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O89" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1063</v>
       </c>
@@ -6647,8 +7295,15 @@
       <c r="I90" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1066</v>
       </c>
@@ -6673,8 +7328,15 @@
       <c r="I91" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O91" t="s">
+        <v>817</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1061</v>
       </c>
@@ -6699,8 +7361,15 @@
       <c r="I92" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>816</v>
       </c>
@@ -6725,8 +7394,15 @@
       <c r="I93" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O93" t="s">
+        <v>819</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1077</v>
       </c>
@@ -6751,8 +7427,15 @@
       <c r="I94" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O94" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>818</v>
       </c>
@@ -6777,8 +7460,15 @@
       <c r="I95" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O95" t="s">
+        <v>822</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1096</v>
       </c>
@@ -6803,8 +7493,15 @@
       <c r="I96" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O96" t="s">
+        <v>1103</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>821</v>
       </c>
@@ -6829,8 +7526,15 @@
       <c r="I97" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O97" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1102</v>
       </c>
@@ -6855,8 +7559,15 @@
       <c r="I98" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O98" t="s">
+        <v>825</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1100</v>
       </c>
@@ -6881,8 +7592,15 @@
       <c r="I99" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O99" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>824</v>
       </c>
@@ -6907,8 +7625,15 @@
       <c r="I100" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O100" t="s">
+        <v>851</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1098</v>
       </c>
@@ -6933,8 +7658,15 @@
       <c r="I101" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O101" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>850</v>
       </c>
@@ -6959,8 +7691,15 @@
       <c r="I102" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O102" t="s">
+        <v>828</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="1"/>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1091</v>
       </c>
@@ -6985,8 +7724,15 @@
       <c r="I103" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O103" t="s">
+        <v>631</v>
+      </c>
+      <c r="P103" t="str">
+        <f>IF(F103=O104, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>827</v>
       </c>
@@ -7011,8 +7757,15 @@
       <c r="I104" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O104" t="s">
+        <v>599</v>
+      </c>
+      <c r="P104" t="str">
+        <f>IF(F104=O105, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>630</v>
       </c>
@@ -7037,8 +7790,15 @@
       <c r="I105" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O105" t="s">
+        <v>1111</v>
+      </c>
+      <c r="P105" t="str">
+        <f>IF(F105=O106, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>596</v>
       </c>
@@ -7063,8 +7823,15 @@
       <c r="I106" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O106" t="s">
+        <v>1114</v>
+      </c>
+      <c r="P106" t="str">
+        <f>IF(F106=O107, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1110</v>
       </c>
@@ -7089,8 +7856,15 @@
       <c r="I107" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O107" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P107" t="str">
+        <f>IF(F107=O108, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1113</v>
       </c>
@@ -7115,8 +7889,15 @@
       <c r="I108" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O108" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P108" t="str">
+        <f>IF(F108=O109, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1119</v>
       </c>
@@ -7141,8 +7922,15 @@
       <c r="I109" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O109" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P109" t="str">
+        <f>IF(F109=O110, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1131</v>
       </c>
@@ -7167,8 +7955,15 @@
       <c r="I110" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O110" t="s">
+        <v>1141</v>
+      </c>
+      <c r="P110" t="str">
+        <f>IF(F110=O111, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1122</v>
       </c>
@@ -7193,8 +7988,15 @@
       <c r="I111" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O111" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P111" t="str">
+        <f>IF(F111=O112, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1140</v>
       </c>
@@ -7219,8 +8021,15 @@
       <c r="I112" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O112" t="s">
+        <v>1147</v>
+      </c>
+      <c r="P112" t="str">
+        <f>IF(F112=O113, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1143</v>
       </c>
@@ -7245,8 +8054,15 @@
       <c r="I113" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O113" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P113" t="str">
+        <f>IF(F113=O114, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1146</v>
       </c>
@@ -7271,8 +8087,15 @@
       <c r="I114" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O114" t="s">
+        <v>1135</v>
+      </c>
+      <c r="P114" t="str">
+        <f>IF(F114=O115, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1149</v>
       </c>
@@ -7297,8 +8120,15 @@
       <c r="I115" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O115" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P115" t="str">
+        <f>IF(F115=O116, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1134</v>
       </c>
@@ -7323,8 +8153,15 @@
       <c r="I116" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O116" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P116" t="str">
+        <f>IF(F116=O117, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1128</v>
       </c>
@@ -7349,8 +8186,15 @@
       <c r="I117" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P117" t="str">
+        <f>IF(F117=O118, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1116</v>
       </c>
@@ -7375,8 +8219,15 @@
       <c r="I118" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O118" t="s">
+        <v>1138</v>
+      </c>
+      <c r="P118" t="str">
+        <f>IF(F118=O119, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1105</v>
       </c>
@@ -7401,8 +8252,15 @@
       <c r="I119" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O119" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P119" t="str">
+        <f>IF(F119=O120, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1137</v>
       </c>
@@ -7427,8 +8285,15 @@
       <c r="I120" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O120" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P120" t="str">
+        <f>IF(F120=O121, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1152</v>
       </c>
@@ -7453,8 +8318,15 @@
       <c r="I121" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O121" t="s">
+        <v>54</v>
+      </c>
+      <c r="P121" t="str">
+        <f>IF(F121=O122, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1154</v>
       </c>
@@ -7479,8 +8351,15 @@
       <c r="I122" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O122" t="s">
+        <v>51</v>
+      </c>
+      <c r="P122" t="str">
+        <f>IF(F122=O123, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -7505,8 +8384,15 @@
       <c r="I123" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O123" t="s">
+        <v>57</v>
+      </c>
+      <c r="P123" t="str">
+        <f>IF(F123=O124, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -7531,8 +8417,15 @@
       <c r="I124" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O124" t="s">
+        <v>60</v>
+      </c>
+      <c r="P124" t="str">
+        <f>IF(F124=O125, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>56</v>
       </c>
@@ -7557,8 +8450,15 @@
       <c r="I125" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O125" t="s">
+        <v>63</v>
+      </c>
+      <c r="P125" t="str">
+        <f>IF(F125=O126, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -7583,8 +8483,15 @@
       <c r="I126" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O126" t="s">
+        <v>69</v>
+      </c>
+      <c r="P126" t="str">
+        <f>IF(F126=O127, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>62</v>
       </c>
@@ -7609,8 +8516,15 @@
       <c r="I127" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O127" t="s">
+        <v>66</v>
+      </c>
+      <c r="P127" t="str">
+        <f>IF(F127=O128, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>68</v>
       </c>
@@ -7635,8 +8549,15 @@
       <c r="I128" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O128" t="s">
+        <v>74</v>
+      </c>
+      <c r="P128" t="str">
+        <f>IF(F128=O129, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -7661,8 +8582,15 @@
       <c r="I129" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O129" t="s">
+        <v>602</v>
+      </c>
+      <c r="P129" t="str">
+        <f>IF(F129=O130, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -7687,8 +8615,15 @@
       <c r="I130" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O130" t="s">
+        <v>856</v>
+      </c>
+      <c r="P130" t="str">
+        <f>IF(F130=O131, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>601</v>
       </c>
@@ -7710,8 +8645,15 @@
       <c r="H131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O131" t="s">
+        <v>553</v>
+      </c>
+      <c r="P131" t="str">
+        <f>IF(F131=O132, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>855</v>
       </c>
@@ -7736,8 +8678,15 @@
       <c r="I132" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O132" t="s">
+        <v>859</v>
+      </c>
+      <c r="P132" t="str">
+        <f>IF(F132=O133, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>552</v>
       </c>
@@ -7762,8 +8711,15 @@
       <c r="I133" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O133" t="s">
+        <v>550</v>
+      </c>
+      <c r="P133" t="str">
+        <f>IF(F133=O134, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>858</v>
       </c>
@@ -7788,8 +8744,15 @@
       <c r="I134" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O134" t="s">
+        <v>854</v>
+      </c>
+      <c r="P134" t="str">
+        <f>IF(F134=O135, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>549</v>
       </c>
@@ -7814,8 +8777,15 @@
       <c r="I135" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O135" t="s">
+        <v>559</v>
+      </c>
+      <c r="P135" t="str">
+        <f>IF(F135=O136, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>853</v>
       </c>
@@ -7840,8 +8810,15 @@
       <c r="I136" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O136" t="s">
+        <v>544</v>
+      </c>
+      <c r="P136" t="str">
+        <f>IF(F136=O137, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>558</v>
       </c>
@@ -7866,8 +8843,15 @@
       <c r="I137" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O137" t="s">
+        <v>547</v>
+      </c>
+      <c r="P137" t="str">
+        <f>IF(F137=O138, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>541</v>
       </c>
@@ -7892,8 +8876,15 @@
       <c r="I138" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O138" t="s">
+        <v>562</v>
+      </c>
+      <c r="P138" t="str">
+        <f>IF(F138=O139, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>546</v>
       </c>
@@ -7918,8 +8909,15 @@
       <c r="I139" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O139" t="s">
+        <v>861</v>
+      </c>
+      <c r="P139" t="str">
+        <f>IF(F139=O140, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>561</v>
       </c>
@@ -7944,8 +8942,15 @@
       <c r="I140" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O140" t="s">
+        <v>583</v>
+      </c>
+      <c r="P140" t="str">
+        <f>IF(F140=O141, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>860</v>
       </c>
@@ -7970,8 +8975,15 @@
       <c r="I141" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O141" t="s">
+        <v>580</v>
+      </c>
+      <c r="P141" t="str">
+        <f>IF(F141=O142, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>582</v>
       </c>
@@ -7996,8 +9008,15 @@
       <c r="I142" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O142" t="s">
+        <v>565</v>
+      </c>
+      <c r="P142" t="str">
+        <f>IF(F142=O143, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>579</v>
       </c>
@@ -8022,8 +9041,15 @@
       <c r="I143" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O143" t="s">
+        <v>864</v>
+      </c>
+      <c r="P143" t="str">
+        <f>IF(F143=O144, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>564</v>
       </c>
@@ -8048,8 +9074,15 @@
       <c r="I144" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O144" t="s">
+        <v>568</v>
+      </c>
+      <c r="P144" t="str">
+        <f>IF(F144=O145, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>863</v>
       </c>
@@ -8074,8 +9107,15 @@
       <c r="I145" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O145" t="s">
+        <v>866</v>
+      </c>
+      <c r="P145" t="str">
+        <f>IF(F145=O146, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>567</v>
       </c>
@@ -8100,8 +9140,15 @@
       <c r="I146" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O146" t="s">
+        <v>571</v>
+      </c>
+      <c r="P146" t="str">
+        <f>IF(F146=O147, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>865</v>
       </c>
@@ -8126,8 +9173,15 @@
       <c r="I147" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O147" t="s">
+        <v>869</v>
+      </c>
+      <c r="P147" t="str">
+        <f>IF(F147=O148, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>570</v>
       </c>
@@ -8152,8 +9206,15 @@
       <c r="I148" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O148" t="s">
+        <v>574</v>
+      </c>
+      <c r="P148" t="str">
+        <f>IF(F148=O149, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>868</v>
       </c>
@@ -8178,8 +9239,15 @@
       <c r="I149" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O149" t="s">
+        <v>875</v>
+      </c>
+      <c r="P149" t="str">
+        <f>IF(F149=O150, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>573</v>
       </c>
@@ -8204,8 +9272,15 @@
       <c r="I150" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O150" t="s">
+        <v>577</v>
+      </c>
+      <c r="P150" t="str">
+        <f>IF(F150=O151, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>874</v>
       </c>
@@ -8230,8 +9305,15 @@
       <c r="I151" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O151" t="s">
+        <v>878</v>
+      </c>
+      <c r="P151" t="str">
+        <f>IF(F151=O152, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>576</v>
       </c>
@@ -8256,8 +9338,15 @@
       <c r="I152" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O152" t="s">
+        <v>80</v>
+      </c>
+      <c r="P152" t="str">
+        <f>IF(F152=O153, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>877</v>
       </c>
@@ -8282,8 +9371,15 @@
       <c r="I153" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O153" t="s">
+        <v>190</v>
+      </c>
+      <c r="P153" t="str">
+        <f>IF(F153=O154, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -8308,8 +9404,15 @@
       <c r="I154" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O154" t="s">
+        <v>604</v>
+      </c>
+      <c r="P154" t="str">
+        <f>IF(F154=O155, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>189</v>
       </c>
@@ -8334,8 +9437,15 @@
       <c r="I155" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O155" t="s">
+        <v>619</v>
+      </c>
+      <c r="P155" t="str">
+        <f>IF(F155=O156, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>603</v>
       </c>
@@ -8360,8 +9470,15 @@
       <c r="I156" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O156" t="s">
+        <v>622</v>
+      </c>
+      <c r="P156" t="str">
+        <f>IF(F156=O157, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>618</v>
       </c>
@@ -8386,8 +9503,15 @@
       <c r="I157" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O157" t="s">
+        <v>77</v>
+      </c>
+      <c r="P157" t="str">
+        <f>IF(F157=O158, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>621</v>
       </c>
@@ -8412,8 +9536,15 @@
       <c r="I158" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O158" t="s">
+        <v>831</v>
+      </c>
+      <c r="P158" t="str">
+        <f>IF(F158=O159, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>76</v>
       </c>
@@ -8438,8 +9569,15 @@
       <c r="I159" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O159" t="s">
+        <v>89</v>
+      </c>
+      <c r="P159" t="str">
+        <f>IF(F159=O160, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>830</v>
       </c>
@@ -8464,8 +9602,15 @@
       <c r="I160" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O160" t="s">
+        <v>833</v>
+      </c>
+      <c r="P160" t="str">
+        <f>IF(F160=O161, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>88</v>
       </c>
@@ -8490,8 +9635,15 @@
       <c r="I161" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O161" t="s">
+        <v>86</v>
+      </c>
+      <c r="P161" t="str">
+        <f>IF(F161=O162, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>832</v>
       </c>
@@ -8516,8 +9668,15 @@
       <c r="I162" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O162" t="s">
+        <v>883</v>
+      </c>
+      <c r="P162" t="str">
+        <f>IF(F162=O163, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>85</v>
       </c>
@@ -8542,8 +9701,15 @@
       <c r="I163" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O163" t="s">
+        <v>92</v>
+      </c>
+      <c r="P163" t="str">
+        <f>IF(F163=O164, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>882</v>
       </c>
@@ -8568,8 +9734,15 @@
       <c r="I164" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O164" t="s">
+        <v>835</v>
+      </c>
+      <c r="P164" t="str">
+        <f>IF(F164=O165, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>91</v>
       </c>
@@ -8594,8 +9767,15 @@
       <c r="I165" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O165" t="s">
+        <v>95</v>
+      </c>
+      <c r="P165" t="str">
+        <f>IF(F165=O166, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>834</v>
       </c>
@@ -8620,8 +9800,15 @@
       <c r="I166" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O166" t="s">
+        <v>98</v>
+      </c>
+      <c r="P166" t="str">
+        <f>IF(F166=O167, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>94</v>
       </c>
@@ -8646,8 +9833,15 @@
       <c r="I167" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O167" t="s">
+        <v>104</v>
+      </c>
+      <c r="P167" t="str">
+        <f>IF(F167=O168, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>97</v>
       </c>
@@ -8672,8 +9866,15 @@
       <c r="I168" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O168" t="s">
+        <v>839</v>
+      </c>
+      <c r="P168" t="str">
+        <f>IF(F168=O169, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>103</v>
       </c>
@@ -8698,8 +9899,15 @@
       <c r="I169" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O169" t="s">
+        <v>107</v>
+      </c>
+      <c r="P169" t="str">
+        <f>IF(F169=O170, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>838</v>
       </c>
@@ -8724,8 +9932,15 @@
       <c r="I170" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O170" t="s">
+        <v>886</v>
+      </c>
+      <c r="P170" t="str">
+        <f>IF(F170=O171, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -8750,8 +9965,15 @@
       <c r="I171" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O171" t="s">
+        <v>101</v>
+      </c>
+      <c r="P171" t="str">
+        <f>IF(F171=O172, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>885</v>
       </c>
@@ -8776,8 +9998,15 @@
       <c r="I172" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O172" t="s">
+        <v>837</v>
+      </c>
+      <c r="P172" t="str">
+        <f>IF(F172=O173, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -8802,8 +10031,15 @@
       <c r="I173" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O173" t="s">
+        <v>121</v>
+      </c>
+      <c r="P173" t="str">
+        <f>IF(F173=O174, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>836</v>
       </c>
@@ -8828,8 +10064,15 @@
       <c r="I174" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O174" t="s">
+        <v>947</v>
+      </c>
+      <c r="P174" t="str">
+        <f>IF(F174=O175, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -8854,8 +10097,15 @@
       <c r="I175" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O175" t="s">
+        <v>634</v>
+      </c>
+      <c r="P175" t="str">
+        <f>IF(F175=O176, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>946</v>
       </c>
@@ -8880,8 +10130,15 @@
       <c r="I176" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O176" t="s">
+        <v>124</v>
+      </c>
+      <c r="P176" t="str">
+        <f>IF(F176=O177, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>633</v>
       </c>
@@ -8903,8 +10160,15 @@
       <c r="I177" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O177" t="s">
+        <v>636</v>
+      </c>
+      <c r="P177" t="str">
+        <f>IF(F177=O178, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -8929,8 +10193,15 @@
       <c r="I178" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O178" t="s">
+        <v>127</v>
+      </c>
+      <c r="P178" t="str">
+        <f>IF(F178=O179, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>635</v>
       </c>
@@ -8952,8 +10223,15 @@
       <c r="I179" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O179" t="s">
+        <v>638</v>
+      </c>
+      <c r="P179" t="str">
+        <f>IF(F179=O180, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>126</v>
       </c>
@@ -8978,8 +10256,15 @@
       <c r="I180" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O180" t="s">
+        <v>130</v>
+      </c>
+      <c r="P180" t="str">
+        <f>IF(F180=O181, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>637</v>
       </c>
@@ -9001,8 +10286,15 @@
       <c r="I181" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O181" t="s">
+        <v>640</v>
+      </c>
+      <c r="P181" t="str">
+        <f>IF(F181=O182, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>129</v>
       </c>
@@ -9027,8 +10319,15 @@
       <c r="I182" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O182" t="s">
+        <v>136</v>
+      </c>
+      <c r="P182" t="str">
+        <f>IF(F182=O183, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>639</v>
       </c>
@@ -9050,8 +10349,15 @@
       <c r="I183" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O183" t="s">
+        <v>998</v>
+      </c>
+      <c r="P183" t="str">
+        <f>IF(F183=O184, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>135</v>
       </c>
@@ -9076,8 +10382,15 @@
       <c r="I184" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O184" t="s">
+        <v>642</v>
+      </c>
+      <c r="P184" t="str">
+        <f>IF(F184=O185, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>997</v>
       </c>
@@ -9102,8 +10415,15 @@
       <c r="I185" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O185" t="s">
+        <v>647</v>
+      </c>
+      <c r="P185" t="str">
+        <f>IF(F185=O186, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>641</v>
       </c>
@@ -9125,8 +10445,15 @@
       <c r="I186" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O186" t="s">
+        <v>139</v>
+      </c>
+      <c r="P186" t="str">
+        <f>IF(F186=O187, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>646</v>
       </c>
@@ -9148,8 +10475,15 @@
       <c r="I187" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O187" t="s">
+        <v>133</v>
+      </c>
+      <c r="P187" t="str">
+        <f>IF(F187=O188, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>138</v>
       </c>
@@ -9174,8 +10508,15 @@
       <c r="I188" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O188" t="s">
+        <v>649</v>
+      </c>
+      <c r="P188" t="str">
+        <f>IF(F188=O189, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -9200,8 +10541,15 @@
       <c r="I189" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O189" t="s">
+        <v>142</v>
+      </c>
+      <c r="P189" t="str">
+        <f>IF(F189=O190, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>648</v>
       </c>
@@ -9223,8 +10571,15 @@
       <c r="I190" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O190" t="s">
+        <v>651</v>
+      </c>
+      <c r="P190" t="str">
+        <f>IF(F190=O191, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>141</v>
       </c>
@@ -9249,8 +10604,15 @@
       <c r="I191" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O191" t="s">
+        <v>145</v>
+      </c>
+      <c r="P191" t="str">
+        <f>IF(F191=O192, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>650</v>
       </c>
@@ -9272,8 +10634,15 @@
       <c r="I192" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O192" t="s">
+        <v>653</v>
+      </c>
+      <c r="P192" t="str">
+        <f>IF(F192=O193, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -9298,8 +10667,15 @@
       <c r="I193" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O193" t="s">
+        <v>151</v>
+      </c>
+      <c r="P193" t="str">
+        <f>IF(F193=O194, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>652</v>
       </c>
@@ -9321,8 +10697,15 @@
       <c r="I194" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O194" t="s">
+        <v>655</v>
+      </c>
+      <c r="P194" t="str">
+        <f>IF(F194=O195, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>150</v>
       </c>
@@ -9347,8 +10730,15 @@
       <c r="I195" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O195" t="s">
+        <v>154</v>
+      </c>
+      <c r="P195" t="str">
+        <f>IF(F195=O196, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>654</v>
       </c>
@@ -9370,8 +10760,15 @@
       <c r="I196" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O196" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P196" t="str">
+        <f>IF(F196=O197, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -9396,8 +10793,15 @@
       <c r="I197" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O197" t="s">
+        <v>657</v>
+      </c>
+      <c r="P197" t="str">
+        <f>IF(F197=O198, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1000</v>
       </c>
@@ -9422,8 +10826,15 @@
       <c r="I198" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O198" t="s">
+        <v>157</v>
+      </c>
+      <c r="P198" t="str">
+        <f>IF(F198=O199, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>656</v>
       </c>
@@ -9445,8 +10856,15 @@
       <c r="I199" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O199" t="s">
+        <v>659</v>
+      </c>
+      <c r="P199" t="str">
+        <f>IF(F199=O200, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>156</v>
       </c>
@@ -9471,8 +10889,15 @@
       <c r="I200" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O200" t="s">
+        <v>160</v>
+      </c>
+      <c r="P200" t="str">
+        <f>IF(F200=O201, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>658</v>
       </c>
@@ -9494,8 +10919,15 @@
       <c r="I201" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O201" t="s">
+        <v>769</v>
+      </c>
+      <c r="P201" t="str">
+        <f>IF(F201=O202, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -9520,8 +10952,15 @@
       <c r="I202" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O202" t="s">
+        <v>772</v>
+      </c>
+      <c r="P202" t="str">
+        <f>IF(F202=O203, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>768</v>
       </c>
@@ -9543,8 +10982,15 @@
       <c r="I203" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O203" t="s">
+        <v>976</v>
+      </c>
+      <c r="P203" t="str">
+        <f>IF(F203=O204, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>771</v>
       </c>
@@ -9569,8 +11015,15 @@
       <c r="I204" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O204" t="s">
+        <v>973</v>
+      </c>
+      <c r="P204" t="str">
+        <f>IF(F204=O205, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>975</v>
       </c>
@@ -9592,8 +11045,15 @@
       <c r="I205" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O205" t="s">
+        <v>661</v>
+      </c>
+      <c r="P205" t="str">
+        <f>IF(F205=O206, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>972</v>
       </c>
@@ -9618,8 +11078,15 @@
       <c r="I206" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O206" t="s">
+        <v>163</v>
+      </c>
+      <c r="P206" t="str">
+        <f>IF(F206=O207, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>660</v>
       </c>
@@ -9641,8 +11108,15 @@
       <c r="I207" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O207" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P207" t="str">
+        <f>IF(F207=O208, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>162</v>
       </c>
@@ -9667,8 +11141,15 @@
       <c r="I208" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O208" t="s">
+        <v>166</v>
+      </c>
+      <c r="P208" t="str">
+        <f>IF(F208=O209, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1006</v>
       </c>
@@ -9693,8 +11174,15 @@
       <c r="I209" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O209" t="s">
+        <v>663</v>
+      </c>
+      <c r="P209" t="str">
+        <f>IF(F209=O210, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>165</v>
       </c>
@@ -9719,8 +11207,15 @@
       <c r="I210" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O210" t="s">
+        <v>169</v>
+      </c>
+      <c r="P210" t="str">
+        <f>IF(F210=O211, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>662</v>
       </c>
@@ -9742,8 +11237,15 @@
       <c r="I211" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O211" t="s">
+        <v>665</v>
+      </c>
+      <c r="P211" t="str">
+        <f>IF(F211=O212, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>168</v>
       </c>
@@ -9768,8 +11270,15 @@
       <c r="I212" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O212" t="s">
+        <v>172</v>
+      </c>
+      <c r="P212" t="str">
+        <f>IF(F212=O213, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>664</v>
       </c>
@@ -9791,8 +11300,15 @@
       <c r="I213" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O213" t="s">
+        <v>673</v>
+      </c>
+      <c r="P213" t="str">
+        <f>IF(F213=O214, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>171</v>
       </c>
@@ -9817,8 +11333,15 @@
       <c r="I214" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O214" t="s">
+        <v>175</v>
+      </c>
+      <c r="P214" t="str">
+        <f>IF(F214=O215, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>672</v>
       </c>
@@ -9840,8 +11363,15 @@
       <c r="I215" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O215" t="s">
+        <v>675</v>
+      </c>
+      <c r="P215" t="str">
+        <f>IF(F215=O216, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>174</v>
       </c>
@@ -9866,8 +11396,15 @@
       <c r="I216" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O216" t="s">
+        <v>178</v>
+      </c>
+      <c r="P216" t="str">
+        <f>IF(F216=O217, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>674</v>
       </c>
@@ -9889,8 +11426,15 @@
       <c r="I217" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O217" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P217" t="str">
+        <f>IF(F217=O218, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>177</v>
       </c>
@@ -9915,8 +11459,15 @@
       <c r="I218" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O218" t="s">
+        <v>187</v>
+      </c>
+      <c r="P218" t="str">
+        <f>IF(F218=O219, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1009</v>
       </c>
@@ -9941,8 +11492,15 @@
       <c r="I219" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O219" t="s">
+        <v>951</v>
+      </c>
+      <c r="P219" t="str">
+        <f>IF(F219=O220, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>186</v>
       </c>
@@ -9967,8 +11525,15 @@
       <c r="I220" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O220" t="s">
+        <v>610</v>
+      </c>
+      <c r="P220" t="str">
+        <f>IF(F220=O221, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>950</v>
       </c>
@@ -9993,8 +11558,15 @@
       <c r="I221" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O221" t="s">
+        <v>888</v>
+      </c>
+      <c r="P221" t="str">
+        <f>IF(F221=O222, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>609</v>
       </c>
@@ -10019,8 +11591,15 @@
       <c r="I222" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O222" t="s">
+        <v>193</v>
+      </c>
+      <c r="P222" t="str">
+        <f>IF(F222=O223, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>887</v>
       </c>
@@ -10045,8 +11624,15 @@
       <c r="I223" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O223" t="s">
+        <v>196</v>
+      </c>
+      <c r="P223" t="str">
+        <f>IF(F223=O224, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>192</v>
       </c>
@@ -10071,8 +11657,15 @@
       <c r="I224" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O224" t="s">
+        <v>198</v>
+      </c>
+      <c r="P224" t="str">
+        <f>IF(F224=O225, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>195</v>
       </c>
@@ -10097,8 +11690,15 @@
       <c r="I225" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O225" t="s">
+        <v>201</v>
+      </c>
+      <c r="P225" t="str">
+        <f>IF(F225=O226, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>197</v>
       </c>
@@ -10123,8 +11723,15 @@
       <c r="I226" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O226" t="s">
+        <v>225</v>
+      </c>
+      <c r="P226" t="str">
+        <f>IF(F226=O227, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>200</v>
       </c>
@@ -10149,8 +11756,15 @@
       <c r="I227" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O227" t="s">
+        <v>37</v>
+      </c>
+      <c r="P227" t="str">
+        <f>IF(F227=O228, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -10175,8 +11789,15 @@
       <c r="I228" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O228" t="s">
+        <v>228</v>
+      </c>
+      <c r="P228" t="str">
+        <f>IF(F228=O229, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -10192,8 +11813,15 @@
       <c r="I229" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O229" t="s">
+        <v>231</v>
+      </c>
+      <c r="P229" t="str">
+        <f>IF(F229=O230, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -10218,8 +11846,15 @@
       <c r="I230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O230" t="s">
+        <v>234</v>
+      </c>
+      <c r="P230" t="str">
+        <f>IF(F230=O231, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10244,8 +11879,15 @@
       <c r="I231" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O231" t="s">
+        <v>237</v>
+      </c>
+      <c r="P231" t="str">
+        <f>IF(F231=O232, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -10270,8 +11912,15 @@
       <c r="I232" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O232" t="s">
+        <v>240</v>
+      </c>
+      <c r="P232" t="str">
+        <f>IF(F232=O233, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -10296,8 +11945,15 @@
       <c r="I233" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O233" t="s">
+        <v>243</v>
+      </c>
+      <c r="P233" t="str">
+        <f>IF(F233=O234, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -10322,8 +11978,15 @@
       <c r="I234" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O234" t="s">
+        <v>222</v>
+      </c>
+      <c r="P234" t="str">
+        <f>IF(F234=O235, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -10348,8 +12011,15 @@
       <c r="I235" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O235" t="s">
+        <v>204</v>
+      </c>
+      <c r="P235" t="str">
+        <f>IF(F235=O236, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>221</v>
       </c>
@@ -10374,8 +12044,15 @@
       <c r="I236" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O236" t="s">
+        <v>409</v>
+      </c>
+      <c r="P236" t="str">
+        <f>IF(F236=O237, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>203</v>
       </c>
@@ -10400,8 +12077,15 @@
       <c r="I237" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O237" t="s">
+        <v>207</v>
+      </c>
+      <c r="P237" t="str">
+        <f>IF(F237=O238, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>408</v>
       </c>
@@ -10426,8 +12110,15 @@
       <c r="I238" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O238" t="s">
+        <v>210</v>
+      </c>
+      <c r="P238" t="str">
+        <f>IF(F238=O239, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>206</v>
       </c>
@@ -10452,8 +12143,15 @@
       <c r="I239" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O239" t="s">
+        <v>530</v>
+      </c>
+      <c r="P239" t="str">
+        <f>IF(F239=O240, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>209</v>
       </c>
@@ -10478,8 +12176,15 @@
       <c r="I240" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O240" t="s">
+        <v>216</v>
+      </c>
+      <c r="P240" t="str">
+        <f>IF(F240=O241, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>529</v>
       </c>
@@ -10504,8 +12209,15 @@
       <c r="I241" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O241" t="s">
+        <v>841</v>
+      </c>
+      <c r="P241" t="str">
+        <f>IF(F241=O242, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>215</v>
       </c>
@@ -10530,8 +12242,15 @@
       <c r="I242" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O242" t="s">
+        <v>613</v>
+      </c>
+      <c r="P242" t="str">
+        <f>IF(F242=O243, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>840</v>
       </c>
@@ -10556,8 +12275,15 @@
       <c r="I243" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O243" t="s">
+        <v>843</v>
+      </c>
+      <c r="P243" t="str">
+        <f>IF(F243=O244, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>612</v>
       </c>
@@ -10582,8 +12308,15 @@
       <c r="I244" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O244" t="s">
+        <v>219</v>
+      </c>
+      <c r="P244" t="str">
+        <f>IF(F244=O245, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>842</v>
       </c>
@@ -10608,8 +12341,15 @@
       <c r="I245" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O245" t="s">
+        <v>890</v>
+      </c>
+      <c r="P245" t="str">
+        <f>IF(F245=O246, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>218</v>
       </c>
@@ -10634,8 +12374,15 @@
       <c r="I246" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O246" t="s">
+        <v>249</v>
+      </c>
+      <c r="P246" t="str">
+        <f>IF(F246=O247, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>889</v>
       </c>
@@ -10660,8 +12407,15 @@
       <c r="I247" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O247" t="s">
+        <v>252</v>
+      </c>
+      <c r="P247" t="str">
+        <f>IF(F247=O248, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -10686,8 +12440,15 @@
       <c r="I248" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O248" t="s">
+        <v>255</v>
+      </c>
+      <c r="P248" t="str">
+        <f>IF(F248=O249, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -10712,8 +12473,15 @@
       <c r="I249" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O249" t="s">
+        <v>258</v>
+      </c>
+      <c r="P249" t="str">
+        <f>IF(F249=O250, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -10738,8 +12506,15 @@
       <c r="I250" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O250" t="s">
+        <v>261</v>
+      </c>
+      <c r="P250" t="str">
+        <f>IF(F250=O251, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -10764,8 +12539,15 @@
       <c r="I251" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O251" t="s">
+        <v>892</v>
+      </c>
+      <c r="P251" t="str">
+        <f>IF(F251=O252, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>260</v>
       </c>
@@ -10790,8 +12572,15 @@
       <c r="I252" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O252" t="s">
+        <v>264</v>
+      </c>
+      <c r="P252" t="str">
+        <f>IF(F252=O253, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>891</v>
       </c>
@@ -10816,8 +12605,15 @@
       <c r="I253" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O253" t="s">
+        <v>895</v>
+      </c>
+      <c r="P253" t="str">
+        <f>IF(F253=O254, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -10842,8 +12638,15 @@
       <c r="I254" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O254" t="s">
+        <v>270</v>
+      </c>
+      <c r="P254" t="str">
+        <f>IF(F254=O255, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>894</v>
       </c>
@@ -10868,8 +12671,15 @@
       <c r="I255" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O255" t="s">
+        <v>267</v>
+      </c>
+      <c r="P255" t="str">
+        <f>IF(F255=O256, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>269</v>
       </c>
@@ -10894,8 +12704,15 @@
       <c r="I256" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O256" t="s">
+        <v>898</v>
+      </c>
+      <c r="P256" t="str">
+        <f>IF(F256=O257, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -10920,8 +12737,15 @@
       <c r="I257" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O257" t="s">
+        <v>616</v>
+      </c>
+      <c r="P257" t="str">
+        <f>IF(F257=O258, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -10946,8 +12770,15 @@
       <c r="I258" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O258" t="s">
+        <v>906</v>
+      </c>
+      <c r="P258" t="str">
+        <f>IF(F258=O259, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>615</v>
       </c>
@@ -10972,8 +12803,15 @@
       <c r="I259" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O259" t="s">
+        <v>275</v>
+      </c>
+      <c r="P259" t="str">
+        <f>IF(F259=O260, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>905</v>
       </c>
@@ -10998,8 +12836,15 @@
       <c r="I260" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O260" t="s">
+        <v>280</v>
+      </c>
+      <c r="P260" t="str">
+        <f>IF(F260=O261, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>274</v>
       </c>
@@ -11024,8 +12869,15 @@
       <c r="I261" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O261" t="s">
+        <v>283</v>
+      </c>
+      <c r="P261" t="str">
+        <f>IF(F261=O262, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>279</v>
       </c>
@@ -11050,8 +12902,15 @@
       <c r="I262" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O262" t="s">
+        <v>910</v>
+      </c>
+      <c r="P262" t="str">
+        <f>IF(F262=O263, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>282</v>
       </c>
@@ -11076,8 +12935,15 @@
       <c r="I263" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O263" t="s">
+        <v>286</v>
+      </c>
+      <c r="P263" t="str">
+        <f>IF(F263=O264, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>909</v>
       </c>
@@ -11102,8 +12968,15 @@
       <c r="I264" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O264" t="s">
+        <v>912</v>
+      </c>
+      <c r="P264" t="str">
+        <f>IF(F264=O265, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>285</v>
       </c>
@@ -11128,8 +13001,15 @@
       <c r="I265" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O265" t="s">
+        <v>273</v>
+      </c>
+      <c r="P265" t="str">
+        <f>IF(F265=O266, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>911</v>
       </c>
@@ -11154,8 +13034,15 @@
       <c r="I266" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O266" t="s">
+        <v>908</v>
+      </c>
+      <c r="P266" t="str">
+        <f>IF(F266=O267, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -11180,8 +13067,15 @@
       <c r="I267" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O267" t="s">
+        <v>625</v>
+      </c>
+      <c r="P267" t="str">
+        <f>IF(F267=O268, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>907</v>
       </c>
@@ -11206,8 +13100,15 @@
       <c r="I268" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O268" t="s">
+        <v>915</v>
+      </c>
+      <c r="P268" t="str">
+        <f>IF(F268=O269, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>624</v>
       </c>
@@ -11232,8 +13133,15 @@
       <c r="I269" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O269" t="s">
+        <v>288</v>
+      </c>
+      <c r="P269" t="str">
+        <f>IF(F269=O270, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>914</v>
       </c>
@@ -11258,8 +13166,15 @@
       <c r="I270" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O270" t="s">
+        <v>917</v>
+      </c>
+      <c r="P270" t="str">
+        <f>IF(F270=O271, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -11284,8 +13199,15 @@
       <c r="I271" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O271" t="s">
+        <v>291</v>
+      </c>
+      <c r="P271" t="str">
+        <f>IF(F271=O272, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>916</v>
       </c>
@@ -11310,8 +13232,15 @@
       <c r="I272" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O272" t="s">
+        <v>919</v>
+      </c>
+      <c r="P272" t="str">
+        <f>IF(F272=O273, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>290</v>
       </c>
@@ -11336,8 +13265,15 @@
       <c r="I273" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O273" t="s">
+        <v>294</v>
+      </c>
+      <c r="P273" t="str">
+        <f>IF(F273=O274, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>918</v>
       </c>
@@ -11362,8 +13298,15 @@
       <c r="I274" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O274" t="s">
+        <v>921</v>
+      </c>
+      <c r="P274" t="str">
+        <f>IF(F274=O275, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -11388,8 +13331,15 @@
       <c r="I275" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O275" t="s">
+        <v>184</v>
+      </c>
+      <c r="P275" t="str">
+        <f>IF(F275=O276, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>920</v>
       </c>
@@ -11414,8 +13364,15 @@
       <c r="I276" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O276" t="s">
+        <v>949</v>
+      </c>
+      <c r="P276" t="str">
+        <f>IF(F276=O277, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>183</v>
       </c>
@@ -11440,8 +13397,15 @@
       <c r="I277" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O277" t="s">
+        <v>297</v>
+      </c>
+      <c r="P277" t="str">
+        <f>IF(F277=O278, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>948</v>
       </c>
@@ -11466,8 +13430,15 @@
       <c r="I278" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O278" t="s">
+        <v>305</v>
+      </c>
+      <c r="P278" t="str">
+        <f>IF(F278=O279, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>296</v>
       </c>
@@ -11492,8 +13463,15 @@
       <c r="I279" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O279" t="s">
+        <v>311</v>
+      </c>
+      <c r="P279" t="str">
+        <f>IF(F279=O280, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>304</v>
       </c>
@@ -11518,8 +13496,15 @@
       <c r="I280" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O280" t="s">
+        <v>314</v>
+      </c>
+      <c r="P280" t="str">
+        <f>IF(F280=O281, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -11544,8 +13529,15 @@
       <c r="I281" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O281" t="s">
+        <v>317</v>
+      </c>
+      <c r="P281" t="str">
+        <f>IF(F281=O282, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>313</v>
       </c>
@@ -11570,8 +13562,15 @@
       <c r="I282" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O282" t="s">
+        <v>299</v>
+      </c>
+      <c r="P282" t="str">
+        <f>IF(F282=O283, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>316</v>
       </c>
@@ -11596,8 +13595,15 @@
       <c r="I283" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O283" t="s">
+        <v>925</v>
+      </c>
+      <c r="P283" t="str">
+        <f>IF(F283=O284, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -11622,8 +13628,15 @@
       <c r="I284" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O284" t="s">
+        <v>320</v>
+      </c>
+      <c r="P284" t="str">
+        <f>IF(F284=O285, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>924</v>
       </c>
@@ -11648,8 +13661,15 @@
       <c r="I285" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O285" t="s">
+        <v>323</v>
+      </c>
+      <c r="P285" t="str">
+        <f>IF(F285=O286, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>319</v>
       </c>
@@ -11674,8 +13694,15 @@
       <c r="I286" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O286" t="s">
+        <v>302</v>
+      </c>
+      <c r="P286" t="str">
+        <f>IF(F286=O287, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>322</v>
       </c>
@@ -11700,8 +13727,15 @@
       <c r="I287" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O287" t="s">
+        <v>923</v>
+      </c>
+      <c r="P287" t="str">
+        <f>IF(F287=O288, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>301</v>
       </c>
@@ -11726,8 +13760,15 @@
       <c r="I288" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O288" t="s">
+        <v>1159</v>
+      </c>
+      <c r="P288" t="str">
+        <f>IF(F288=O289, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>922</v>
       </c>
@@ -11752,8 +13793,15 @@
       <c r="I289" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O289" t="s">
+        <v>1160</v>
+      </c>
+      <c r="P289" t="str">
+        <f>IF(F289=O290, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>109</v>
       </c>
@@ -11778,8 +13826,15 @@
       <c r="I290" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O290" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P290" t="str">
+        <f>IF(F290=O291, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>112</v>
       </c>
@@ -11804,8 +13859,15 @@
       <c r="I291" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O291" t="s">
+        <v>326</v>
+      </c>
+      <c r="P291" t="str">
+        <f>IF(F291=O292, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>117</v>
       </c>
@@ -11830,8 +13892,15 @@
       <c r="I292" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O292" t="s">
+        <v>931</v>
+      </c>
+      <c r="P292" t="str">
+        <f>IF(F292=O293, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>325</v>
       </c>
@@ -11856,8 +13925,15 @@
       <c r="I293" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O293" t="s">
+        <v>329</v>
+      </c>
+      <c r="P293" t="str">
+        <f>IF(F293=O294, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>930</v>
       </c>
@@ -11882,8 +13958,15 @@
       <c r="I294" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O294" t="s">
+        <v>933</v>
+      </c>
+      <c r="P294" t="str">
+        <f>IF(F294=O295, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>328</v>
       </c>
@@ -11908,8 +13991,15 @@
       <c r="I295" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O295" t="s">
+        <v>332</v>
+      </c>
+      <c r="P295" t="str">
+        <f>IF(F295=O296, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>932</v>
       </c>
@@ -11934,8 +14024,15 @@
       <c r="I296" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O296" t="s">
+        <v>335</v>
+      </c>
+      <c r="P296" t="str">
+        <f>IF(F296=O297, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>331</v>
       </c>
@@ -11960,8 +14057,15 @@
       <c r="I297" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O297" t="s">
+        <v>338</v>
+      </c>
+      <c r="P297" t="str">
+        <f>IF(F297=O298, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>334</v>
       </c>
@@ -11986,8 +14090,15 @@
       <c r="I298" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O298" t="s">
+        <v>344</v>
+      </c>
+      <c r="P298" t="str">
+        <f>IF(F298=O299, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>337</v>
       </c>
@@ -12012,8 +14123,15 @@
       <c r="I299" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O299" t="s">
+        <v>935</v>
+      </c>
+      <c r="P299" t="str">
+        <f>IF(F299=O300, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>343</v>
       </c>
@@ -12038,8 +14156,15 @@
       <c r="I300" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O300" t="s">
+        <v>347</v>
+      </c>
+      <c r="P300" t="str">
+        <f>IF(F300=O301, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>934</v>
       </c>
@@ -12064,8 +14189,15 @@
       <c r="I301" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O301" t="s">
+        <v>937</v>
+      </c>
+      <c r="P301" t="str">
+        <f>IF(F301=O302, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>346</v>
       </c>
@@ -12090,8 +14222,15 @@
       <c r="I302" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O302" t="s">
+        <v>350</v>
+      </c>
+      <c r="P302" t="str">
+        <f>IF(F302=O303, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>936</v>
       </c>
@@ -12116,8 +14255,15 @@
       <c r="I303" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O303" t="s">
+        <v>956</v>
+      </c>
+      <c r="P303" t="str">
+        <f>IF(F303=O304, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>349</v>
       </c>
@@ -12142,8 +14288,15 @@
       <c r="I304" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O304" t="s">
+        <v>353</v>
+      </c>
+      <c r="P304" t="str">
+        <f>IF(F304=O305, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>955</v>
       </c>
@@ -12168,8 +14321,15 @@
       <c r="I305" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O305" t="s">
+        <v>356</v>
+      </c>
+      <c r="P305" t="str">
+        <f>IF(F305=O306, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>352</v>
       </c>
@@ -12194,8 +14354,15 @@
       <c r="I306" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O306" t="s">
+        <v>959</v>
+      </c>
+      <c r="P306" t="str">
+        <f>IF(F306=O307, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>355</v>
       </c>
@@ -12220,8 +14387,15 @@
       <c r="I307" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O307" t="s">
+        <v>359</v>
+      </c>
+      <c r="P307" t="str">
+        <f>IF(F307=O308, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>958</v>
       </c>
@@ -12246,8 +14420,15 @@
       <c r="I308" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O308" t="s">
+        <v>961</v>
+      </c>
+      <c r="P308" t="str">
+        <f>IF(F308=O309, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>358</v>
       </c>
@@ -12272,8 +14453,15 @@
       <c r="I309" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O309" t="s">
+        <v>362</v>
+      </c>
+      <c r="P309" t="str">
+        <f>IF(F309=O310, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>960</v>
       </c>
@@ -12298,8 +14486,15 @@
       <c r="I310" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O310" t="s">
+        <v>963</v>
+      </c>
+      <c r="P310" t="str">
+        <f>IF(F310=O311, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>361</v>
       </c>
@@ -12324,8 +14519,15 @@
       <c r="I311" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O311" t="s">
+        <v>365</v>
+      </c>
+      <c r="P311" t="str">
+        <f>IF(F311=O312, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>962</v>
       </c>
@@ -12350,8 +14552,15 @@
       <c r="I312" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O312" t="s">
+        <v>939</v>
+      </c>
+      <c r="P312" t="str">
+        <f>IF(F312=O313, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>364</v>
       </c>
@@ -12376,8 +14585,15 @@
       <c r="I313" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O313" t="s">
+        <v>368</v>
+      </c>
+      <c r="P313" t="str">
+        <f>IF(F313=O314, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>938</v>
       </c>
@@ -12402,8 +14618,15 @@
       <c r="I314" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O314" t="s">
+        <v>965</v>
+      </c>
+      <c r="P314" t="str">
+        <f>IF(F314=O315, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>367</v>
       </c>
@@ -12428,8 +14651,15 @@
       <c r="I315" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O315" t="s">
+        <v>677</v>
+      </c>
+      <c r="P315" t="str">
+        <f>IF(F315=O316, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>964</v>
       </c>
@@ -12454,8 +14684,15 @@
       <c r="I316" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O316" t="s">
+        <v>371</v>
+      </c>
+      <c r="P316" t="str">
+        <f>IF(F316=O317, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>676</v>
       </c>
@@ -12477,8 +14714,15 @@
       <c r="I317" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O317" t="s">
+        <v>679</v>
+      </c>
+      <c r="P317" t="str">
+        <f>IF(F317=O318, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>370</v>
       </c>
@@ -12503,8 +14747,15 @@
       <c r="I318" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O318" t="s">
+        <v>379</v>
+      </c>
+      <c r="P318" t="str">
+        <f>IF(F318=O319, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>678</v>
       </c>
@@ -12526,8 +14777,15 @@
       <c r="I319" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O319" t="s">
+        <v>681</v>
+      </c>
+      <c r="P319" t="str">
+        <f>IF(F319=O320, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>378</v>
       </c>
@@ -12552,8 +14810,15 @@
       <c r="I320" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O320" t="s">
+        <v>381</v>
+      </c>
+      <c r="P320" t="str">
+        <f>IF(F320=O321, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>680</v>
       </c>
@@ -12575,8 +14840,15 @@
       <c r="I321" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O321" t="s">
+        <v>683</v>
+      </c>
+      <c r="P321" t="str">
+        <f>IF(F321=O322, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>380</v>
       </c>
@@ -12601,8 +14873,15 @@
       <c r="I322" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O322" t="s">
+        <v>383</v>
+      </c>
+      <c r="P322" t="str">
+        <f>IF(F322=O323, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>682</v>
       </c>
@@ -12624,8 +14903,15 @@
       <c r="I323" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O323" t="s">
+        <v>986</v>
+      </c>
+      <c r="P323" t="str">
+        <f>IF(F323=O324, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>382</v>
       </c>
@@ -12650,8 +14936,15 @@
       <c r="I324" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O324" t="s">
+        <v>685</v>
+      </c>
+      <c r="P324" t="str">
+        <f>IF(F324=O325, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>985</v>
       </c>
@@ -12676,8 +14969,15 @@
       <c r="I325" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O325" t="s">
+        <v>386</v>
+      </c>
+      <c r="P325" t="str">
+        <f>IF(F325=O326, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>684</v>
       </c>
@@ -12699,8 +14999,15 @@
       <c r="I326" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O326" t="s">
+        <v>687</v>
+      </c>
+      <c r="P326" t="str">
+        <f>IF(F326=O327, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>385</v>
       </c>
@@ -12725,8 +15032,15 @@
       <c r="I327" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O327" t="s">
+        <v>389</v>
+      </c>
+      <c r="P327" t="str">
+        <f>IF(F327=O328, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>686</v>
       </c>
@@ -12748,8 +15062,15 @@
       <c r="I328" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O328" t="s">
+        <v>689</v>
+      </c>
+      <c r="P328" t="str">
+        <f>IF(F328=O329, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>388</v>
       </c>
@@ -12774,8 +15095,15 @@
       <c r="I329" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O329" t="s">
+        <v>392</v>
+      </c>
+      <c r="P329" t="str">
+        <f>IF(F329=O330, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>688</v>
       </c>
@@ -12797,8 +15125,15 @@
       <c r="I330" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O330" t="s">
+        <v>694</v>
+      </c>
+      <c r="P330" t="str">
+        <f>IF(F330=O331, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>391</v>
       </c>
@@ -12823,8 +15158,15 @@
       <c r="I331" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O331" t="s">
+        <v>395</v>
+      </c>
+      <c r="P331" t="str">
+        <f>IF(F331=O332, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>693</v>
       </c>
@@ -12846,8 +15188,15 @@
       <c r="I332" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O332" t="s">
+        <v>980</v>
+      </c>
+      <c r="P332" t="str">
+        <f>IF(F332=O333, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>394</v>
       </c>
@@ -12872,8 +15221,15 @@
       <c r="I333" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O333" t="s">
+        <v>978</v>
+      </c>
+      <c r="P333" t="str">
+        <f>IF(F333=O334, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>979</v>
       </c>
@@ -12895,8 +15251,15 @@
       <c r="I334" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O334" t="s">
+        <v>989</v>
+      </c>
+      <c r="P334" t="str">
+        <f>IF(F334=O335, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>977</v>
       </c>
@@ -12921,8 +15284,15 @@
       <c r="I335" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O335" t="s">
+        <v>774</v>
+      </c>
+      <c r="P335" t="str">
+        <f>IF(F335=O336, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>988</v>
       </c>
@@ -12947,8 +15317,15 @@
       <c r="I336" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O336" t="s">
+        <v>776</v>
+      </c>
+      <c r="P336" t="str">
+        <f>IF(F336=O337, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>773</v>
       </c>
@@ -12970,8 +15347,15 @@
       <c r="I337" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O337" t="s">
+        <v>778</v>
+      </c>
+      <c r="P337" t="str">
+        <f>IF(F337=O338, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>775</v>
       </c>
@@ -12996,8 +15380,15 @@
       <c r="I338" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O338" t="s">
+        <v>780</v>
+      </c>
+      <c r="P338" t="str">
+        <f>IF(F338=O339, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>777</v>
       </c>
@@ -13019,8 +15410,15 @@
       <c r="I339" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O339" t="s">
+        <v>782</v>
+      </c>
+      <c r="P339" t="str">
+        <f>IF(F339=O340, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>779</v>
       </c>
@@ -13045,8 +15443,15 @@
       <c r="I340" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O340" t="s">
+        <v>787</v>
+      </c>
+      <c r="P340" t="str">
+        <f>IF(F340=O341, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>781</v>
       </c>
@@ -13068,8 +15473,15 @@
       <c r="I341" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O341" t="s">
+        <v>984</v>
+      </c>
+      <c r="P341" t="str">
+        <f>IF(F341=O342, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>786</v>
       </c>
@@ -13094,8 +15506,15 @@
       <c r="I342" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O342" t="s">
+        <v>982</v>
+      </c>
+      <c r="P342" t="str">
+        <f>IF(F342=O343, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>983</v>
       </c>
@@ -13117,8 +15536,15 @@
       <c r="I343" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O343" t="s">
+        <v>789</v>
+      </c>
+      <c r="P343" t="str">
+        <f>IF(F343=O344, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>981</v>
       </c>
@@ -13143,8 +15569,15 @@
       <c r="I344" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O344" t="s">
+        <v>791</v>
+      </c>
+      <c r="P344" t="str">
+        <f>IF(F344=O345, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>788</v>
       </c>
@@ -13166,8 +15599,15 @@
       <c r="I345" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O345" t="s">
+        <v>992</v>
+      </c>
+      <c r="P345" t="str">
+        <f>IF(F345=O346, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>790</v>
       </c>
@@ -13192,8 +15632,15 @@
       <c r="I346" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O346" t="s">
+        <v>696</v>
+      </c>
+      <c r="P346" t="str">
+        <f>IF(F346=O347, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>991</v>
       </c>
@@ -13218,8 +15665,15 @@
       <c r="I347" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O347" t="s">
+        <v>405</v>
+      </c>
+      <c r="P347" t="str">
+        <f>IF(F347=O348, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>695</v>
       </c>
@@ -13241,8 +15695,15 @@
       <c r="I348" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O348" t="s">
+        <v>698</v>
+      </c>
+      <c r="P348" t="str">
+        <f>IF(F348=O349, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>404</v>
       </c>
@@ -13267,8 +15728,15 @@
       <c r="I349" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O349" t="s">
+        <v>398</v>
+      </c>
+      <c r="P349" t="str">
+        <f>IF(F349=O350, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>697</v>
       </c>
@@ -13290,8 +15758,15 @@
       <c r="I350" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O350" t="s">
+        <v>700</v>
+      </c>
+      <c r="P350" t="str">
+        <f>IF(F350=O351, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>397</v>
       </c>
@@ -13316,8 +15791,15 @@
       <c r="I351" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O351" t="s">
+        <v>400</v>
+      </c>
+      <c r="P351" t="str">
+        <f>IF(F351=O352, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>699</v>
       </c>
@@ -13339,8 +15821,15 @@
       <c r="I352" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O352" t="s">
+        <v>702</v>
+      </c>
+      <c r="P352" t="str">
+        <f>IF(F352=O353, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>399</v>
       </c>
@@ -13365,8 +15854,15 @@
       <c r="I353" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O353" t="s">
+        <v>407</v>
+      </c>
+      <c r="P353" t="str">
+        <f>IF(F353=O354, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>701</v>
       </c>
@@ -13388,8 +15884,15 @@
       <c r="I354" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O354" t="s">
+        <v>995</v>
+      </c>
+      <c r="P354" t="str">
+        <f>IF(F354=O355, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>406</v>
       </c>
@@ -13414,8 +15917,15 @@
       <c r="I355" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O355" t="s">
+        <v>412</v>
+      </c>
+      <c r="P355" t="str">
+        <f>IF(F355=O356, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>994</v>
       </c>
@@ -13440,8 +15950,15 @@
       <c r="I356" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O356" t="s">
+        <v>967</v>
+      </c>
+      <c r="P356" t="str">
+        <f>IF(F356=O357, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>411</v>
       </c>
@@ -13466,8 +15983,15 @@
       <c r="I357" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O357" t="s">
+        <v>415</v>
+      </c>
+      <c r="P357" t="str">
+        <f>IF(F357=O358, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>966</v>
       </c>
@@ -13492,8 +16016,15 @@
       <c r="I358" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O358" t="s">
+        <v>969</v>
+      </c>
+      <c r="P358" t="str">
+        <f>IF(F358=O359, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>414</v>
       </c>
@@ -13518,8 +16049,15 @@
       <c r="I359" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O359" t="s">
+        <v>424</v>
+      </c>
+      <c r="P359" t="str">
+        <f>IF(F359=O360, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>968</v>
       </c>
@@ -13544,8 +16082,15 @@
       <c r="I360" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O360" t="s">
+        <v>971</v>
+      </c>
+      <c r="P360" t="str">
+        <f>IF(F360=O361, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>423</v>
       </c>
@@ -13570,8 +16115,15 @@
       <c r="I361" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O361" t="s">
+        <v>418</v>
+      </c>
+      <c r="P361" t="str">
+        <f>IF(F361=O362, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>970</v>
       </c>
@@ -13596,8 +16148,15 @@
       <c r="I362" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O362" t="s">
+        <v>941</v>
+      </c>
+      <c r="P362" t="str">
+        <f>IF(F362=O363, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>417</v>
       </c>
@@ -13622,8 +16181,15 @@
       <c r="I363" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O363" t="s">
+        <v>421</v>
+      </c>
+      <c r="P363" t="str">
+        <f>IF(F363=O364, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>940</v>
       </c>
@@ -13648,8 +16214,15 @@
       <c r="I364" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O364" t="s">
+        <v>944</v>
+      </c>
+      <c r="P364" t="str">
+        <f>IF(F364=O365, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>420</v>
       </c>
@@ -13674,8 +16247,15 @@
       <c r="I365" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O365" t="s">
+        <v>704</v>
+      </c>
+      <c r="P365" t="str">
+        <f>IF(F365=O366, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>943</v>
       </c>
@@ -13700,8 +16280,15 @@
       <c r="I366" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O366" t="s">
+        <v>439</v>
+      </c>
+      <c r="P366" t="str">
+        <f>IF(F366=O367, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>703</v>
       </c>
@@ -13723,8 +16310,15 @@
       <c r="I367" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O367" t="s">
+        <v>706</v>
+      </c>
+      <c r="P367" t="str">
+        <f>IF(F367=O368, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>438</v>
       </c>
@@ -13749,8 +16343,15 @@
       <c r="I368" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O368" t="s">
+        <v>442</v>
+      </c>
+      <c r="P368" t="str">
+        <f>IF(F368=O369, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>705</v>
       </c>
@@ -13772,8 +16373,15 @@
       <c r="I369" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O369" t="s">
+        <v>708</v>
+      </c>
+      <c r="P369" t="str">
+        <f>IF(F369=O370, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>441</v>
       </c>
@@ -13798,8 +16406,15 @@
       <c r="I370" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O370" t="s">
+        <v>539</v>
+      </c>
+      <c r="P370" t="str">
+        <f>IF(F370=O371, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>707</v>
       </c>
@@ -13821,8 +16436,15 @@
       <c r="I371" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O371" t="s">
+        <v>710</v>
+      </c>
+      <c r="P371" t="str">
+        <f>IF(F371=O372, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>538</v>
       </c>
@@ -13847,8 +16469,15 @@
       <c r="I372" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O372" t="s">
+        <v>445</v>
+      </c>
+      <c r="P372" t="str">
+        <f>IF(F372=O373, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>709</v>
       </c>
@@ -13870,8 +16499,15 @@
       <c r="I373" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O373" t="s">
+        <v>712</v>
+      </c>
+      <c r="P373" t="str">
+        <f>IF(F373=O374, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>444</v>
       </c>
@@ -13896,8 +16532,15 @@
       <c r="I374" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O374" t="s">
+        <v>448</v>
+      </c>
+      <c r="P374" t="str">
+        <f>IF(F374=O375, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>711</v>
       </c>
@@ -13919,8 +16562,15 @@
       <c r="I375" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O375" t="s">
+        <v>717</v>
+      </c>
+      <c r="P375" t="str">
+        <f>IF(F375=O376, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>447</v>
       </c>
@@ -13945,8 +16595,15 @@
       <c r="I376" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O376" t="s">
+        <v>450</v>
+      </c>
+      <c r="P376" t="str">
+        <f>IF(F376=O377, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>716</v>
       </c>
@@ -13968,8 +16625,15 @@
       <c r="I377" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O377" t="s">
+        <v>719</v>
+      </c>
+      <c r="P377" t="str">
+        <f>IF(F377=O378, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>449</v>
       </c>
@@ -13994,8 +16658,15 @@
       <c r="I378" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O378" t="s">
+        <v>453</v>
+      </c>
+      <c r="P378" t="str">
+        <f>IF(F378=O379, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>718</v>
       </c>
@@ -14017,8 +16688,15 @@
       <c r="I379" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O379" t="s">
+        <v>721</v>
+      </c>
+      <c r="P379" t="str">
+        <f>IF(F379=O380, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>452</v>
       </c>
@@ -14043,8 +16721,15 @@
       <c r="I380" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O380" t="s">
+        <v>456</v>
+      </c>
+      <c r="P380" t="str">
+        <f>IF(F380=O381, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>720</v>
       </c>
@@ -14066,8 +16751,15 @@
       <c r="I381" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O381" t="s">
+        <v>723</v>
+      </c>
+      <c r="P381" t="str">
+        <f>IF(F381=O382, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>455</v>
       </c>
@@ -14092,8 +16784,15 @@
       <c r="I382" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O382" t="s">
+        <v>459</v>
+      </c>
+      <c r="P382" t="str">
+        <f>IF(F382=O383, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>722</v>
       </c>
@@ -14115,8 +16814,15 @@
       <c r="I383" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O383" t="s">
+        <v>725</v>
+      </c>
+      <c r="P383" t="str">
+        <f>IF(F383=O384, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>458</v>
       </c>
@@ -14141,8 +16847,15 @@
       <c r="I384" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O384" t="s">
+        <v>462</v>
+      </c>
+      <c r="P384" t="str">
+        <f>IF(F384=O385, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>724</v>
       </c>
@@ -14164,8 +16877,15 @@
       <c r="I385" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O385" t="s">
+        <v>727</v>
+      </c>
+      <c r="P385" t="str">
+        <f>IF(F385=O386, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>461</v>
       </c>
@@ -14190,8 +16910,15 @@
       <c r="I386" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O386" t="s">
+        <v>467</v>
+      </c>
+      <c r="P386" t="str">
+        <f>IF(F386=O387, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>726</v>
       </c>
@@ -14213,8 +16940,15 @@
       <c r="I387" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O387" t="s">
+        <v>729</v>
+      </c>
+      <c r="P387" t="str">
+        <f>IF(F387=O388, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>466</v>
       </c>
@@ -14239,8 +16973,15 @@
       <c r="I388" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O388" t="s">
+        <v>470</v>
+      </c>
+      <c r="P388" t="str">
+        <f>IF(F388=O389, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>728</v>
       </c>
@@ -14262,8 +17003,15 @@
       <c r="I389" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O389" t="s">
+        <v>731</v>
+      </c>
+      <c r="P389" t="str">
+        <f>IF(F389=O390, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>469</v>
       </c>
@@ -14288,8 +17036,15 @@
       <c r="I390" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O390" t="s">
+        <v>473</v>
+      </c>
+      <c r="P390" t="str">
+        <f>IF(F390=O391, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>730</v>
       </c>
@@ -14311,8 +17066,15 @@
       <c r="I391" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O391" t="s">
+        <v>733</v>
+      </c>
+      <c r="P391" t="str">
+        <f>IF(F391=O392, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>472</v>
       </c>
@@ -14337,8 +17099,15 @@
       <c r="I392" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O392" t="s">
+        <v>476</v>
+      </c>
+      <c r="P392" t="str">
+        <f>IF(F392=O393, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>732</v>
       </c>
@@ -14360,8 +17129,15 @@
       <c r="I393" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O393" t="s">
+        <v>735</v>
+      </c>
+      <c r="P393" t="str">
+        <f>IF(F393=O394, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>475</v>
       </c>
@@ -14386,8 +17162,15 @@
       <c r="I394" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O394" t="s">
+        <v>479</v>
+      </c>
+      <c r="P394" t="str">
+        <f>IF(F394=O395, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>734</v>
       </c>
@@ -14409,8 +17192,15 @@
       <c r="I395" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O395" t="s">
+        <v>740</v>
+      </c>
+      <c r="P395" t="str">
+        <f>IF(F395=O396, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>478</v>
       </c>
@@ -14435,8 +17225,15 @@
       <c r="I396" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O396" t="s">
+        <v>482</v>
+      </c>
+      <c r="P396" t="str">
+        <f>IF(F396=O397, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>739</v>
       </c>
@@ -14458,8 +17255,15 @@
       <c r="I397" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O397" t="s">
+        <v>742</v>
+      </c>
+      <c r="P397" t="str">
+        <f>IF(F397=O398, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>481</v>
       </c>
@@ -14484,8 +17288,15 @@
       <c r="I398" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O398" t="s">
+        <v>744</v>
+      </c>
+      <c r="P398" t="str">
+        <f>IF(F398=O399, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>741</v>
       </c>
@@ -14507,8 +17318,15 @@
       <c r="I399" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O399" t="s">
+        <v>488</v>
+      </c>
+      <c r="P399" t="str">
+        <f>IF(F399=O400, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>743</v>
       </c>
@@ -14530,8 +17348,15 @@
       <c r="I400" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O400" t="s">
+        <v>746</v>
+      </c>
+      <c r="P400" t="str">
+        <f>IF(F400=O401, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>487</v>
       </c>
@@ -14556,8 +17381,15 @@
       <c r="I401" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O401" t="s">
+        <v>491</v>
+      </c>
+      <c r="P401" t="str">
+        <f>IF(F401=O402, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>745</v>
       </c>
@@ -14579,8 +17411,15 @@
       <c r="I402" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O402" t="s">
+        <v>748</v>
+      </c>
+      <c r="P402" t="str">
+        <f>IF(F402=O403, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>490</v>
       </c>
@@ -14605,8 +17444,15 @@
       <c r="I403" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O403" t="s">
+        <v>494</v>
+      </c>
+      <c r="P403" t="str">
+        <f>IF(F403=O404, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>747</v>
       </c>
@@ -14628,8 +17474,15 @@
       <c r="I404" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O404" t="s">
+        <v>485</v>
+      </c>
+      <c r="P404" t="str">
+        <f>IF(F404=O405, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>493</v>
       </c>
@@ -14654,8 +17507,15 @@
       <c r="I405" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O405" t="s">
+        <v>750</v>
+      </c>
+      <c r="P405" t="str">
+        <f>IF(F405=O406, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>484</v>
       </c>
@@ -14680,8 +17540,15 @@
       <c r="I406" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O406" t="s">
+        <v>499</v>
+      </c>
+      <c r="P406" t="str">
+        <f>IF(F406=O407, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>749</v>
       </c>
@@ -14703,8 +17570,15 @@
       <c r="I407" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O407" t="s">
+        <v>752</v>
+      </c>
+      <c r="P407" t="str">
+        <f>IF(F407=O408, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>498</v>
       </c>
@@ -14729,8 +17603,15 @@
       <c r="I408" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O408" t="s">
+        <v>502</v>
+      </c>
+      <c r="P408" t="str">
+        <f>IF(F408=O409, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>751</v>
       </c>
@@ -14752,8 +17633,15 @@
       <c r="I409" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O409" t="s">
+        <v>754</v>
+      </c>
+      <c r="P409" t="str">
+        <f>IF(F409=O410, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>501</v>
       </c>
@@ -14778,8 +17666,15 @@
       <c r="I410" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O410" t="s">
+        <v>505</v>
+      </c>
+      <c r="P410" t="str">
+        <f>IF(F410=O411, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>753</v>
       </c>
@@ -14801,8 +17696,15 @@
       <c r="I411" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O411" t="s">
+        <v>756</v>
+      </c>
+      <c r="P411" t="str">
+        <f>IF(F411=O412, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>504</v>
       </c>
@@ -14827,8 +17729,15 @@
       <c r="I412" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O412" t="s">
+        <v>508</v>
+      </c>
+      <c r="P412" t="str">
+        <f>IF(F412=O413, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>755</v>
       </c>
@@ -14850,8 +17759,15 @@
       <c r="I413" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O413" t="s">
+        <v>758</v>
+      </c>
+      <c r="P413" t="str">
+        <f>IF(F413=O414, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>507</v>
       </c>
@@ -14876,8 +17792,15 @@
       <c r="I414" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O414" t="s">
+        <v>510</v>
+      </c>
+      <c r="P414" t="str">
+        <f>IF(F414=O415, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>757</v>
       </c>
@@ -14899,8 +17822,15 @@
       <c r="I415" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O415" t="s">
+        <v>763</v>
+      </c>
+      <c r="P415" t="str">
+        <f>IF(F415=O416, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>509</v>
       </c>
@@ -14925,8 +17855,15 @@
       <c r="I416" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O416" t="s">
+        <v>513</v>
+      </c>
+      <c r="P416" t="str">
+        <f>IF(F416=O417, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>762</v>
       </c>
@@ -14948,8 +17885,15 @@
       <c r="I417" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O417" t="s">
+        <v>765</v>
+      </c>
+      <c r="P417" t="str">
+        <f>IF(F417=O418, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>512</v>
       </c>
@@ -14974,8 +17918,15 @@
       <c r="I418" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O418" t="s">
+        <v>767</v>
+      </c>
+      <c r="P418" t="str">
+        <f>IF(F418=O419, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>764</v>
       </c>
@@ -14997,8 +17948,15 @@
       <c r="I419" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O419" t="s">
+        <v>519</v>
+      </c>
+      <c r="P419" t="str">
+        <f>IF(F419=O420, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>766</v>
       </c>
@@ -15020,8 +17978,15 @@
       <c r="I420" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O420" t="s">
+        <v>516</v>
+      </c>
+      <c r="P420" t="str">
+        <f>IF(F420=O421, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>518</v>
       </c>
@@ -15046,8 +18011,15 @@
       <c r="I421" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O421" t="s">
+        <v>522</v>
+      </c>
+      <c r="P421" t="str">
+        <f>IF(F421=O422, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>515</v>
       </c>
@@ -15072,8 +18044,15 @@
       <c r="I422" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O422" t="s">
+        <v>525</v>
+      </c>
+      <c r="P422" t="str">
+        <f>IF(F422=O423, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>521</v>
       </c>
@@ -15098,8 +18077,15 @@
       <c r="I423" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O423" t="s">
+        <v>427</v>
+      </c>
+      <c r="P423" t="str">
+        <f>IF(F423=O424, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>524</v>
       </c>
@@ -15124,8 +18110,15 @@
       <c r="I424" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O424" t="s">
+        <v>430</v>
+      </c>
+      <c r="P424" t="str">
+        <f>IF(F424=O425, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>426</v>
       </c>
@@ -15150,8 +18143,15 @@
       <c r="I425" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O425" t="s">
+        <v>436</v>
+      </c>
+      <c r="P425" t="str">
+        <f>IF(F425=O426, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>429</v>
       </c>
@@ -15176,8 +18176,15 @@
       <c r="I426" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O426" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P426" t="str">
+        <f>IF(F426=O427, "Gelijk", "Niet gelijk")</f>
+        <v>Niet gelijk</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>435</v>
       </c>
@@ -15202,8 +18209,11 @@
       <c r="I427" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O427" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1012</v>
       </c>
@@ -15229,7 +18239,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>879</v>
       </c>
@@ -15259,9 +18269,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K429" xr:uid="{53388CEA-7F2C-4318-B462-AEB542FD377E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K429">
-      <sortCondition ref="F1:F429"/>
+  <autoFilter ref="O1:O429" xr:uid="{53388CEA-7F2C-4318-B462-AEB542FD377E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O429">
+      <sortCondition ref="O1:O429"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
